--- a/natmiOut/OldD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhba</t>
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.19129929451663</v>
+        <v>0.3965436666666666</v>
       </c>
       <c r="H2">
-        <v>2.19129929451663</v>
+        <v>1.189631</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09997914073966499</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.099979140739665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N2">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q2">
-        <v>471.1271552648454</v>
+        <v>86.75525012337255</v>
       </c>
       <c r="R2">
-        <v>471.1271552648454</v>
+        <v>780.797251110353</v>
       </c>
       <c r="S2">
-        <v>0.7873286713819787</v>
+        <v>0.07835459390145806</v>
       </c>
       <c r="T2">
-        <v>0.7873286713819787</v>
+        <v>0.07835459390145808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.19129929451663</v>
+        <v>0.3965436666666666</v>
       </c>
       <c r="H3">
-        <v>2.19129929451663</v>
+        <v>1.189631</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09997914073966499</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.099979140739665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N3">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q3">
-        <v>101.1210542255941</v>
+        <v>18.35786783815255</v>
       </c>
       <c r="R3">
-        <v>101.1210542255941</v>
+        <v>165.220810543373</v>
       </c>
       <c r="S3">
-        <v>0.1689894211838117</v>
+        <v>0.01658024473803642</v>
       </c>
       <c r="T3">
-        <v>0.1689894211838117</v>
+        <v>0.01658024473803642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.19129929451663</v>
+        <v>0.3965436666666666</v>
       </c>
       <c r="H4">
-        <v>2.19129929451663</v>
+        <v>1.189631</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.09997914073966499</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.099979140739665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N4">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q4">
-        <v>13.54482241318914</v>
+        <v>2.767431457514</v>
       </c>
       <c r="R4">
-        <v>13.54482241318914</v>
+        <v>24.906883117626</v>
       </c>
       <c r="S4">
-        <v>0.02263556009350837</v>
+        <v>0.002499456432841417</v>
       </c>
       <c r="T4">
-        <v>0.02263556009350837</v>
+        <v>0.002499456432841417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3965436666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.189631</v>
+      </c>
+      <c r="I5">
+        <v>0.09997914073966499</v>
+      </c>
+      <c r="J5">
+        <v>0.099979140739665</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.105616</v>
+      </c>
+      <c r="N5">
+        <v>21.316848</v>
+      </c>
+      <c r="O5">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="P5">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="Q5">
+        <v>2.817687022565333</v>
+      </c>
+      <c r="R5">
+        <v>25.359183203088</v>
+      </c>
+      <c r="S5">
+        <v>0.002544845667329079</v>
+      </c>
+      <c r="T5">
+        <v>0.002544845667329079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.202878</v>
+      </c>
+      <c r="H6">
+        <v>6.608633999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5554037754420784</v>
+      </c>
+      <c r="J6">
+        <v>0.5554037754420785</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>218.7785543333333</v>
+      </c>
+      <c r="N6">
+        <v>656.3356630000001</v>
+      </c>
+      <c r="O6">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="P6">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="Q6">
+        <v>481.9424642127046</v>
+      </c>
+      <c r="R6">
+        <v>4337.482177914342</v>
+      </c>
+      <c r="S6">
+        <v>0.4352751679414612</v>
+      </c>
+      <c r="T6">
+        <v>0.4352751679414613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.202878</v>
+      </c>
+      <c r="H7">
+        <v>6.608633999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5554037754420784</v>
+      </c>
+      <c r="J7">
+        <v>0.5554037754420785</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>46.29469433333333</v>
+      </c>
+      <c r="N7">
+        <v>138.884083</v>
+      </c>
+      <c r="O7">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="P7">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="Q7">
+        <v>101.9815636636247</v>
+      </c>
+      <c r="R7">
+        <v>917.8340729726219</v>
+      </c>
+      <c r="S7">
+        <v>0.09210651799096407</v>
+      </c>
+      <c r="T7">
+        <v>0.09210651799096409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.202878</v>
+      </c>
+      <c r="H8">
+        <v>6.608633999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.5554037754420784</v>
+      </c>
+      <c r="J8">
+        <v>0.5554037754420785</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.978882</v>
+      </c>
+      <c r="N8">
+        <v>20.936646</v>
+      </c>
+      <c r="O8">
+        <v>0.02499977909741928</v>
+      </c>
+      <c r="P8">
+        <v>0.02499977909741927</v>
+      </c>
+      <c r="Q8">
+        <v>15.373625622396</v>
+      </c>
+      <c r="R8">
+        <v>138.362630601564</v>
+      </c>
+      <c r="S8">
+        <v>0.01388497169592462</v>
+      </c>
+      <c r="T8">
+        <v>0.01388497169592462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.19129929451663</v>
-      </c>
-      <c r="H5">
-        <v>2.19129929451663</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.74721051004838</v>
-      </c>
-      <c r="N5">
-        <v>5.74721051004838</v>
-      </c>
-      <c r="O5">
-        <v>0.02104634734070128</v>
-      </c>
-      <c r="P5">
-        <v>0.02104634734070128</v>
-      </c>
-      <c r="Q5">
-        <v>12.59385833610758</v>
-      </c>
-      <c r="R5">
-        <v>12.59385833610758</v>
-      </c>
-      <c r="S5">
-        <v>0.02104634734070128</v>
-      </c>
-      <c r="T5">
-        <v>0.02104634734070128</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.202878</v>
+      </c>
+      <c r="H9">
+        <v>6.608633999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5554037754420784</v>
+      </c>
+      <c r="J9">
+        <v>0.5554037754420785</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.105616</v>
+      </c>
+      <c r="N9">
+        <v>21.316848</v>
+      </c>
+      <c r="O9">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="P9">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="Q9">
+        <v>15.652805162848</v>
+      </c>
+      <c r="R9">
+        <v>140.875246465632</v>
+      </c>
+      <c r="S9">
+        <v>0.01413711781372849</v>
+      </c>
+      <c r="T9">
+        <v>0.01413711781372849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08489933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.254698</v>
+      </c>
+      <c r="I10">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="J10">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>218.7785543333333</v>
+      </c>
+      <c r="N10">
+        <v>656.3356630000001</v>
+      </c>
+      <c r="O10">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="P10">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="Q10">
+        <v>18.57415341053044</v>
+      </c>
+      <c r="R10">
+        <v>167.167380694774</v>
+      </c>
+      <c r="S10">
+        <v>0.01677558701606933</v>
+      </c>
+      <c r="T10">
+        <v>0.01677558701606933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08489933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.254698</v>
+      </c>
+      <c r="I11">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="J11">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.29469433333333</v>
+      </c>
+      <c r="N11">
+        <v>138.884083</v>
+      </c>
+      <c r="O11">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="P11">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="Q11">
+        <v>3.930388685770444</v>
+      </c>
+      <c r="R11">
+        <v>35.373498171934</v>
+      </c>
+      <c r="S11">
+        <v>0.003549802564230758</v>
+      </c>
+      <c r="T11">
+        <v>0.003549802564230758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08489933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.254698</v>
+      </c>
+      <c r="I12">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="J12">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.978882</v>
+      </c>
+      <c r="N12">
+        <v>20.936646</v>
+      </c>
+      <c r="O12">
+        <v>0.02499977909741928</v>
+      </c>
+      <c r="P12">
+        <v>0.02499977909741927</v>
+      </c>
+      <c r="Q12">
+        <v>0.5925024292119999</v>
+      </c>
+      <c r="R12">
+        <v>5.332521862907999</v>
+      </c>
+      <c r="S12">
+        <v>0.0005351294262942402</v>
+      </c>
+      <c r="T12">
+        <v>0.0005351294262942401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08489933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.254698</v>
+      </c>
+      <c r="I13">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="J13">
+        <v>0.02140536619179493</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.105616</v>
+      </c>
+      <c r="N13">
+        <v>21.316848</v>
+      </c>
+      <c r="O13">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="P13">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="Q13">
+        <v>0.6032620613226667</v>
+      </c>
+      <c r="R13">
+        <v>5.429358551904</v>
+      </c>
+      <c r="S13">
+        <v>0.0005448471852006058</v>
+      </c>
+      <c r="T13">
+        <v>0.0005448471852006057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.281943</v>
+      </c>
+      <c r="H14">
+        <v>3.845829</v>
+      </c>
+      <c r="I14">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="J14">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>218.7785543333333</v>
+      </c>
+      <c r="N14">
+        <v>656.3356630000001</v>
+      </c>
+      <c r="O14">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="P14">
+        <v>0.7837094150017259</v>
+      </c>
+      <c r="Q14">
+        <v>280.4616362777364</v>
+      </c>
+      <c r="R14">
+        <v>2524.154726499627</v>
+      </c>
+      <c r="S14">
+        <v>0.2533040661427373</v>
+      </c>
+      <c r="T14">
+        <v>0.2533040661427373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.281943</v>
+      </c>
+      <c r="H15">
+        <v>3.845829</v>
+      </c>
+      <c r="I15">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="J15">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.29469433333333</v>
+      </c>
+      <c r="N15">
+        <v>138.884083</v>
+      </c>
+      <c r="O15">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="P15">
+        <v>0.1658370397602197</v>
+      </c>
+      <c r="Q15">
+        <v>59.34715933775634</v>
+      </c>
+      <c r="R15">
+        <v>534.1244340398071</v>
+      </c>
+      <c r="S15">
+        <v>0.0536004744669884</v>
+      </c>
+      <c r="T15">
+        <v>0.0536004744669884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.281943</v>
+      </c>
+      <c r="H16">
+        <v>3.845829</v>
+      </c>
+      <c r="I16">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="J16">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.978882</v>
+      </c>
+      <c r="N16">
+        <v>20.936646</v>
+      </c>
+      <c r="O16">
+        <v>0.02499977909741928</v>
+      </c>
+      <c r="P16">
+        <v>0.02499977909741927</v>
+      </c>
+      <c r="Q16">
+        <v>8.946528927726</v>
+      </c>
+      <c r="R16">
+        <v>80.51876034953401</v>
+      </c>
+      <c r="S16">
+        <v>0.008080221542358997</v>
+      </c>
+      <c r="T16">
+        <v>0.008080221542358997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.281943</v>
+      </c>
+      <c r="H17">
+        <v>3.845829</v>
+      </c>
+      <c r="I17">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="J17">
+        <v>0.3232117176264616</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.105616</v>
+      </c>
+      <c r="N17">
+        <v>21.316848</v>
+      </c>
+      <c r="O17">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="P17">
+        <v>0.02545376614063513</v>
+      </c>
+      <c r="Q17">
+        <v>9.108994691888</v>
+      </c>
+      <c r="R17">
+        <v>81.980952226992</v>
+      </c>
+      <c r="S17">
+        <v>0.008226955474376952</v>
+      </c>
+      <c r="T17">
+        <v>0.00822695547437695</v>
       </c>
     </row>
   </sheetData>
